--- a/consistency_matrix.xlsx
+++ b/consistency_matrix.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,165 +380,193 @@
     <row r="1">
       <c r="C1" t="inlineStr">
         <is>
-          <t>Portionsgröße</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Portionsgröße</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Hunger</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Hunger</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Zeit</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit</t>
+          <t>Ölpreis</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ölpreis</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ölpreis</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Wohnungsgröße</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wohnungsgröße</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>groß</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>klein</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>groß</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>klein</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>viel</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>wenig</t>
+          <t>Steigt</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Bleibt gleich</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>fällt</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>konstant</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Wird größer</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>heißer</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>sehr viel heißer</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portionsgröße</t>
+          <t>Ölpreis</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>groß</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
+          <t>Steigt</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Portionsgröße</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>klein</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ölpreis</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Bleibt gleich</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hunger</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>groß</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Ölpreis</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>fällt</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Hunger</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>klein</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Wohnungsgröße</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>konstant</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Zeit</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>viel</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Wohnungsgröße</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Wird größer</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Zeit</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>wenig</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="3" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>heißer</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>sehr viel heißer</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/consistency_matrix.xlsx
+++ b/consistency_matrix.xlsx
@@ -1,40 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Scenario-Software\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEF5363-8039-4BBD-8F7A-0C99D5748A80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="consistency matrix" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="consistency matrix" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+  <si>
+    <t>Familienkonstellation</t>
+  </si>
+  <si>
+    <t>Bodenbeschaffenheit</t>
+  </si>
+  <si>
+    <t>Häufigkeit von Haustieren</t>
+  </si>
+  <si>
+    <t>Art des Wohnens</t>
+  </si>
+  <si>
+    <t>Besitzer der Gebäudeautomatisierung</t>
+  </si>
+  <si>
+    <t>Verschmutzungsstärke</t>
+  </si>
+  <si>
+    <t>Putzkultur</t>
+  </si>
+  <si>
+    <t>Hygienebewusstsein</t>
+  </si>
+  <si>
+    <t>Zeit zu Hause</t>
+  </si>
+  <si>
+    <t>Produktionskosten</t>
+  </si>
+  <si>
+    <t>Art der Verbindung mit dem Internet</t>
+  </si>
+  <si>
+    <t>Mutter, Vater, Kind</t>
+  </si>
+  <si>
+    <t>Patchwork</t>
+  </si>
+  <si>
+    <t>Teppich</t>
+  </si>
+  <si>
+    <t>Fliesen</t>
+  </si>
+  <si>
+    <t>Hartboden</t>
+  </si>
+  <si>
+    <t>Kaum Haustiere</t>
+  </si>
+  <si>
+    <t>Viele Kleintiere</t>
+  </si>
+  <si>
+    <t>Viele große Tiere</t>
+  </si>
+  <si>
+    <t>Allein</t>
+  </si>
+  <si>
+    <t>WG</t>
+  </si>
+  <si>
+    <t>Familie</t>
+  </si>
+  <si>
+    <t>Wohnungsbesitzer</t>
+  </si>
+  <si>
+    <t>Bewohner</t>
+  </si>
+  <si>
+    <t>Wenig</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Faul und wenig</t>
+  </si>
+  <si>
+    <t>Gründlich und häufig</t>
+  </si>
+  <si>
+    <t>gering</t>
+  </si>
+  <si>
+    <t>Stark ausgeprägt</t>
+  </si>
+  <si>
+    <t>Kaum</t>
+  </si>
+  <si>
+    <t>Viel</t>
+  </si>
+  <si>
+    <t>Gering</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Heimnetz</t>
+  </si>
+  <si>
+    <t>Mobil</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -44,7 +167,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -53,30 +178,94 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -364,211 +553,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ölpreis</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Ölpreis</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ölpreis</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Wohnungsgröße</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wohnungsgröße</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Steigt</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Bleibt gleich</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>fällt</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>konstant</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Wird größer</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>heißer</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>sehr viel heißer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ölpreis</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Steigt</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ölpreis</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Bleibt gleich</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Ölpreis</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>fällt</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Wohnungsgröße</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>konstant</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="I6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Wohnungsgröße</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Wird größer</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>heißer</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="n"/>
-      <c r="G8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>sehr viel heißer</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="3" t="n"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="14"/>
+      <c r="X1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="14"/>
+    </row>
+    <row r="2" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="J5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="J6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="Q14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8"/>
+      <c r="U18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8"/>
+      <c r="W20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8"/>
+      <c r="Y22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="8"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <mergeCells count="22">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/consistency_matrix.xlsx
+++ b/consistency_matrix.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,289 +380,414 @@
     <row r="1">
       <c r="C1" t="inlineStr">
         <is>
+          <t>Putzkultur</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Putzkultur</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Besitzer der Gebäudeautomatisierung</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Besitzer der Gebäudeautomatisierung</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Besitzer der Gebäudeautomatisierung</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Art des Wohnens</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Art des Wohnens</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Art des Wohnens</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Verschmutzungsstärke</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Verschmutzungsstärke</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Zeit zu Hause</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit zu Hause</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Häufigkeit von Haustieren</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Häufigkeit von Haustieren</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Häufigkeit von Haustieren</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bodenbeschaffenheit</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Bodenbeschaffenheit</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Art der Verbindung mit dem Internet</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Art der Verbindung mit dem Internet</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Hygienebewusstsein</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Hygienebewusstsein</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Quellen der Verschmutzung</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Quellen der Verschmutzung</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Aufenthaltsorte der Zukunft</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Aufenthaltsorte der Zukunft</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Aufenthaltsorte der Zukunft</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Zentralisierung der Gebäudesteuerung</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Zentralisierung der Gebäudesteuerung</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
           <t>Familienkonstellation</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Familienkonstellation</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Bodenbeschaffenheit</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Bodenbeschaffenheit</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Bodenbeschaffenheit</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Häufigkeit von Haustieren</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Häufigkeit von Haustieren</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Häufigkeit von Haustieren</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Art des Wohnens</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Art des Wohnens</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Art des Wohnens</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Besitzer der Gebäudeautomatisierung</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Besitzer der Gebäudeautomatisierung</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Verschmutzungsstärke</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Verschmutzungsstärke</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Putzkultur</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Putzkultur</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Hygienebewusstsein</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Hygienebewusstsein</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Zeit zu Hause</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit zu Hause</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Produktionskosten</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Produktionskosten</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Art der Verbindung mit dem Internet</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Art der Verbindung mit dem Internet</t>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Familienkonstellation</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Kontrollbedürfnis über Automatisierung</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Kontrollbedürfnis über Automatisierung</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Umzugshäufigkeit</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Umzugshäufigkeit</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Anzahl der Bewohner</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl der Bewohner</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Mutter, Vater, Kind</t>
+          <t>Wenig und Kaum</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Stark ausgeprägt</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Besitzer des Wohnraums</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Externer Dienstleister</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>WG</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Allein</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Familie</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Wenig</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Viel</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Wenige</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Viele Kleintiere</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Viele Großtiere</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Glattböden</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Teppichböden</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Lokal</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>Kaum ausgeprägt</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Stark ausgeprägt</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Tiere</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>Schmutz von draußen</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Zuhause</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Arbeit</t>
+        </is>
+      </c>
+      <c r="AB2" s="3" t="inlineStr">
+        <is>
+          <t>Dritter Ort</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Eine Zentrale</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>Viele unabhängige Systeme</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>Allein</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Vater, Mutter, Kind</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
           <t>Patchwork</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Teppich</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Fliesen</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Hartboden</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Kaum Haustiere</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Viele Kleintiere</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Viele große Tiere</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Allein</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>WG</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Familie</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Wohnungsbesitzer</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>Wenig</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
         <is>
           <t>Stark</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Faul und wenig</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>Gründlich und häufig</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>gering</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Stark ausgeprägt</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Kaum</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>Viel</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>Gering</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>Hoch</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>Heimnetz</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>Mobil</t>
+      <c r="AJ2" s="2" t="inlineStr">
+        <is>
+          <t>Selten</t>
+        </is>
+      </c>
+      <c r="AK2" s="3" t="inlineStr">
+        <is>
+          <t>Häufig</t>
+        </is>
+      </c>
+      <c r="AL2" s="2" t="inlineStr">
+        <is>
+          <t>Wenige</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>Viele</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Familienkonstellation</t>
+          <t>Putzkultur</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Mutter, Vater, Kind</t>
+          <t>Wenig und Kaum</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
       <c r="J3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
       <c r="Q3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="U3" s="1" t="n"/>
       <c r="W3" s="1" t="n"/>
       <c r="Y3" s="1" t="n"/>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Familienkonstellation</t>
+          <t>Putzkultur</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Patchwork</t>
+          <t>Stark ausgeprägt</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -674,10 +799,10 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="n"/>
       <c r="Q4" s="3" t="n"/>
       <c r="R4" s="2" t="n"/>
@@ -689,63 +814,85 @@
       <c r="X4" s="2" t="n"/>
       <c r="Y4" s="3" t="n"/>
       <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="3" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="3" t="n"/>
+      <c r="AC4" s="2" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="2" t="n"/>
+      <c r="AF4" s="2" t="n"/>
+      <c r="AG4" s="3" t="n"/>
+      <c r="AH4" s="2" t="n"/>
+      <c r="AI4" s="3" t="n"/>
+      <c r="AJ4" s="2" t="n"/>
+      <c r="AK4" s="3" t="n"/>
+      <c r="AL4" s="2" t="n"/>
+      <c r="AM4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bodenbeschaffenheit</t>
+          <t>Besitzer der Gebäudeautomatisierung</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Teppich</t>
+          <t>Bewohner</t>
         </is>
       </c>
       <c r="D5" s="1" t="n"/>
       <c r="G5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
       <c r="Q5" s="1" t="n"/>
       <c r="S5" s="1" t="n"/>
       <c r="U5" s="1" t="n"/>
       <c r="W5" s="1" t="n"/>
       <c r="Y5" s="1" t="n"/>
-      <c r="AA5" s="1" t="n"/>
+      <c r="AB5" s="1" t="n"/>
+      <c r="AD5" s="1" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
+      <c r="AM5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bodenbeschaffenheit</t>
+          <t>Besitzer der Gebäudeautomatisierung</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Fliesen</t>
+          <t>Besitzer des Wohnraums</t>
         </is>
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
       <c r="J6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
       <c r="Q6" s="1" t="n"/>
       <c r="S6" s="1" t="n"/>
       <c r="U6" s="1" t="n"/>
       <c r="W6" s="1" t="n"/>
       <c r="Y6" s="1" t="n"/>
-      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Bodenbeschaffenheit</t>
+          <t>Besitzer der Gebäudeautomatisierung</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Hartboden</t>
+          <t>Externer Dienstleister</t>
         </is>
       </c>
       <c r="C7" s="2" t="n"/>
@@ -757,10 +904,10 @@
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n"/>
       <c r="Q7" s="3" t="n"/>
       <c r="R7" s="2" t="n"/>
@@ -772,63 +919,85 @@
       <c r="X7" s="2" t="n"/>
       <c r="Y7" s="3" t="n"/>
       <c r="Z7" s="2" t="n"/>
-      <c r="AA7" s="3" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="3" t="n"/>
+      <c r="AC7" s="2" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="2" t="n"/>
+      <c r="AF7" s="2" t="n"/>
+      <c r="AG7" s="3" t="n"/>
+      <c r="AH7" s="2" t="n"/>
+      <c r="AI7" s="3" t="n"/>
+      <c r="AJ7" s="2" t="n"/>
+      <c r="AK7" s="3" t="n"/>
+      <c r="AL7" s="2" t="n"/>
+      <c r="AM7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Häufigkeit von Haustieren</t>
+          <t>Art des Wohnens</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Kaum Haustiere</t>
+          <t>WG</t>
         </is>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
       <c r="Q8" s="1" t="n"/>
       <c r="S8" s="1" t="n"/>
       <c r="U8" s="1" t="n"/>
       <c r="W8" s="1" t="n"/>
       <c r="Y8" s="1" t="n"/>
-      <c r="AA8" s="1" t="n"/>
+      <c r="AB8" s="1" t="n"/>
+      <c r="AD8" s="1" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AK8" s="1" t="n"/>
+      <c r="AM8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Häufigkeit von Haustieren</t>
+          <t>Art des Wohnens</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Viele Kleintiere</t>
+          <t>Allein</t>
         </is>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
       <c r="Q9" s="1" t="n"/>
       <c r="S9" s="1" t="n"/>
       <c r="U9" s="1" t="n"/>
       <c r="W9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
-      <c r="AA9" s="1" t="n"/>
+      <c r="AB9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AK9" s="1" t="n"/>
+      <c r="AM9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Häufigkeit von Haustieren</t>
+          <t>Art des Wohnens</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Viele große Tiere</t>
+          <t>Familie</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -840,10 +1009,10 @@
       <c r="I10" s="2" t="n"/>
       <c r="J10" s="3" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n"/>
       <c r="Q10" s="3" t="n"/>
       <c r="R10" s="2" t="n"/>
@@ -855,183 +1024,239 @@
       <c r="X10" s="2" t="n"/>
       <c r="Y10" s="3" t="n"/>
       <c r="Z10" s="2" t="n"/>
-      <c r="AA10" s="3" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="3" t="n"/>
+      <c r="AC10" s="2" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="2" t="n"/>
+      <c r="AF10" s="2" t="n"/>
+      <c r="AG10" s="3" t="n"/>
+      <c r="AH10" s="2" t="n"/>
+      <c r="AI10" s="3" t="n"/>
+      <c r="AJ10" s="2" t="n"/>
+      <c r="AK10" s="3" t="n"/>
+      <c r="AL10" s="2" t="n"/>
+      <c r="AM10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Art des Wohnens</t>
+          <t>Verschmutzungsstärke</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Allein</t>
+          <t>Wenig</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
       <c r="Q11" s="1" t="n"/>
       <c r="S11" s="1" t="n"/>
       <c r="U11" s="1" t="n"/>
       <c r="W11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
-      <c r="AA11" s="1" t="n"/>
+      <c r="AB11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AK11" s="1" t="n"/>
+      <c r="AM11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Art des Wohnens</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>WG</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n"/>
-      <c r="G12" s="1" t="n"/>
-      <c r="J12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
-      <c r="Q12" s="1" t="n"/>
-      <c r="S12" s="1" t="n"/>
-      <c r="U12" s="1" t="n"/>
-      <c r="W12" s="1" t="n"/>
-      <c r="Y12" s="1" t="n"/>
-      <c r="AA12" s="1" t="n"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Verschmutzungsstärke</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="2" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="2" t="n"/>
+      <c r="Y12" s="3" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="3" t="n"/>
+      <c r="AC12" s="2" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="2" t="n"/>
+      <c r="AF12" s="2" t="n"/>
+      <c r="AG12" s="3" t="n"/>
+      <c r="AH12" s="2" t="n"/>
+      <c r="AI12" s="3" t="n"/>
+      <c r="AJ12" s="2" t="n"/>
+      <c r="AK12" s="3" t="n"/>
+      <c r="AL12" s="2" t="n"/>
+      <c r="AM12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Art des Wohnens</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Familie</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="3" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="3" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="3" t="n"/>
-      <c r="V13" s="2" t="n"/>
-      <c r="W13" s="3" t="n"/>
-      <c r="X13" s="2" t="n"/>
-      <c r="Y13" s="3" t="n"/>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="3" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Zeit zu Hause</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Besitzer der Gebäudeautomatisierung</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Wohnungsbesitzer</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n"/>
-      <c r="G14" s="1" t="n"/>
-      <c r="J14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
-      <c r="Q14" s="1" t="n"/>
-      <c r="S14" s="1" t="n"/>
-      <c r="U14" s="1" t="n"/>
-      <c r="W14" s="1" t="n"/>
-      <c r="Y14" s="1" t="n"/>
-      <c r="AA14" s="1" t="n"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Zeit zu Hause</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Viel</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="2" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="2" t="n"/>
+      <c r="Y14" s="3" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="3" t="n"/>
+      <c r="AC14" s="2" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="2" t="n"/>
+      <c r="AF14" s="2" t="n"/>
+      <c r="AG14" s="3" t="n"/>
+      <c r="AH14" s="2" t="n"/>
+      <c r="AI14" s="3" t="n"/>
+      <c r="AJ14" s="2" t="n"/>
+      <c r="AK14" s="3" t="n"/>
+      <c r="AL14" s="2" t="n"/>
+      <c r="AM14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Besitzer der Gebäudeautomatisierung</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="3" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="3" t="n"/>
-      <c r="V15" s="2" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="2" t="n"/>
-      <c r="Y15" s="3" t="n"/>
-      <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="3" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Häufigkeit von Haustieren</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Wenige</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
+      <c r="AD15" s="1" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
+      <c r="AM15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Verschmutzungsstärke</t>
+          <t>Häufigkeit von Haustieren</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Wenig</t>
+          <t>Viele Kleintiere</t>
         </is>
       </c>
       <c r="D16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
       <c r="Q16" s="1" t="n"/>
       <c r="S16" s="1" t="n"/>
       <c r="U16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
       <c r="Y16" s="1" t="n"/>
-      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Verschmutzungsstärke</t>
+          <t>Häufigkeit von Haustieren</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Viele Großtiere</t>
         </is>
       </c>
       <c r="C17" s="2" t="n"/>
@@ -1043,10 +1268,10 @@
       <c r="I17" s="2" t="n"/>
       <c r="J17" s="3" t="n"/>
       <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
       <c r="Q17" s="3" t="n"/>
       <c r="R17" s="2" t="n"/>
@@ -1058,40 +1283,57 @@
       <c r="X17" s="2" t="n"/>
       <c r="Y17" s="3" t="n"/>
       <c r="Z17" s="2" t="n"/>
-      <c r="AA17" s="3" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="3" t="n"/>
+      <c r="AC17" s="2" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="2" t="n"/>
+      <c r="AF17" s="2" t="n"/>
+      <c r="AG17" s="3" t="n"/>
+      <c r="AH17" s="2" t="n"/>
+      <c r="AI17" s="3" t="n"/>
+      <c r="AJ17" s="2" t="n"/>
+      <c r="AK17" s="3" t="n"/>
+      <c r="AL17" s="2" t="n"/>
+      <c r="AM17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Putzkultur</t>
+          <t>Bodenbeschaffenheit</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Faul und wenig</t>
+          <t>Glattböden</t>
         </is>
       </c>
       <c r="D18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
       <c r="Q18" s="1" t="n"/>
       <c r="S18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
       <c r="W18" s="1" t="n"/>
       <c r="Y18" s="1" t="n"/>
-      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AK18" s="1" t="n"/>
+      <c r="AM18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Putzkultur</t>
+          <t>Bodenbeschaffenheit</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Gründlich und häufig</t>
+          <t>Teppichböden</t>
         </is>
       </c>
       <c r="C19" s="2" t="n"/>
@@ -1103,10 +1345,10 @@
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="3" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n"/>
       <c r="Q19" s="3" t="n"/>
       <c r="R19" s="2" t="n"/>
@@ -1118,40 +1360,57 @@
       <c r="X19" s="2" t="n"/>
       <c r="Y19" s="3" t="n"/>
       <c r="Z19" s="2" t="n"/>
-      <c r="AA19" s="3" t="n"/>
+      <c r="AA19" s="2" t="n"/>
+      <c r="AB19" s="3" t="n"/>
+      <c r="AC19" s="2" t="n"/>
+      <c r="AD19" s="3" t="n"/>
+      <c r="AE19" s="2" t="n"/>
+      <c r="AF19" s="2" t="n"/>
+      <c r="AG19" s="3" t="n"/>
+      <c r="AH19" s="2" t="n"/>
+      <c r="AI19" s="3" t="n"/>
+      <c r="AJ19" s="2" t="n"/>
+      <c r="AK19" s="3" t="n"/>
+      <c r="AL19" s="2" t="n"/>
+      <c r="AM19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hygienebewusstsein</t>
+          <t>Art der Verbindung mit dem Internet</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>gering</t>
+          <t>Lokal</t>
         </is>
       </c>
       <c r="D20" s="1" t="n"/>
       <c r="G20" s="1" t="n"/>
       <c r="J20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
       <c r="Q20" s="1" t="n"/>
       <c r="S20" s="1" t="n"/>
       <c r="U20" s="1" t="n"/>
       <c r="W20" s="1" t="n"/>
       <c r="Y20" s="1" t="n"/>
-      <c r="AA20" s="1" t="n"/>
+      <c r="AB20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AI20" s="1" t="n"/>
+      <c r="AK20" s="1" t="n"/>
+      <c r="AM20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Hygienebewusstsein</t>
+          <t>Art der Verbindung mit dem Internet</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Stark ausgeprägt</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="C21" s="2" t="n"/>
@@ -1163,10 +1422,10 @@
       <c r="I21" s="2" t="n"/>
       <c r="J21" s="3" t="n"/>
       <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n"/>
       <c r="Q21" s="3" t="n"/>
       <c r="R21" s="2" t="n"/>
@@ -1178,40 +1437,57 @@
       <c r="X21" s="2" t="n"/>
       <c r="Y21" s="3" t="n"/>
       <c r="Z21" s="2" t="n"/>
-      <c r="AA21" s="3" t="n"/>
+      <c r="AA21" s="2" t="n"/>
+      <c r="AB21" s="3" t="n"/>
+      <c r="AC21" s="2" t="n"/>
+      <c r="AD21" s="3" t="n"/>
+      <c r="AE21" s="2" t="n"/>
+      <c r="AF21" s="2" t="n"/>
+      <c r="AG21" s="3" t="n"/>
+      <c r="AH21" s="2" t="n"/>
+      <c r="AI21" s="3" t="n"/>
+      <c r="AJ21" s="2" t="n"/>
+      <c r="AK21" s="3" t="n"/>
+      <c r="AL21" s="2" t="n"/>
+      <c r="AM21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Zeit zu Hause</t>
+          <t>Hygienebewusstsein</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Kaum</t>
+          <t>Kaum ausgeprägt</t>
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="J22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
       <c r="Q22" s="1" t="n"/>
       <c r="S22" s="1" t="n"/>
       <c r="U22" s="1" t="n"/>
       <c r="W22" s="1" t="n"/>
       <c r="Y22" s="1" t="n"/>
-      <c r="AA22" s="1" t="n"/>
+      <c r="AB22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AI22" s="1" t="n"/>
+      <c r="AK22" s="1" t="n"/>
+      <c r="AM22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Zeit zu Hause</t>
+          <t>Hygienebewusstsein</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Viel</t>
+          <t>Stark ausgeprägt</t>
         </is>
       </c>
       <c r="C23" s="2" t="n"/>
@@ -1223,10 +1499,10 @@
       <c r="I23" s="2" t="n"/>
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="3" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="3" t="n"/>
       <c r="R23" s="2" t="n"/>
@@ -1238,40 +1514,57 @@
       <c r="X23" s="2" t="n"/>
       <c r="Y23" s="3" t="n"/>
       <c r="Z23" s="2" t="n"/>
-      <c r="AA23" s="3" t="n"/>
+      <c r="AA23" s="2" t="n"/>
+      <c r="AB23" s="3" t="n"/>
+      <c r="AC23" s="2" t="n"/>
+      <c r="AD23" s="3" t="n"/>
+      <c r="AE23" s="2" t="n"/>
+      <c r="AF23" s="2" t="n"/>
+      <c r="AG23" s="3" t="n"/>
+      <c r="AH23" s="2" t="n"/>
+      <c r="AI23" s="3" t="n"/>
+      <c r="AJ23" s="2" t="n"/>
+      <c r="AK23" s="3" t="n"/>
+      <c r="AL23" s="2" t="n"/>
+      <c r="AM23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Produktionskosten</t>
+          <t>Quellen der Verschmutzung</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Gering</t>
+          <t>Tiere</t>
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="J24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
       <c r="Q24" s="1" t="n"/>
       <c r="S24" s="1" t="n"/>
       <c r="U24" s="1" t="n"/>
       <c r="W24" s="1" t="n"/>
       <c r="Y24" s="1" t="n"/>
-      <c r="AA24" s="1" t="n"/>
+      <c r="AB24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n"/>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AI24" s="1" t="n"/>
+      <c r="AK24" s="1" t="n"/>
+      <c r="AM24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Produktionskosten</t>
+          <t>Quellen der Verschmutzung</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Hoch</t>
+          <t>Schmutz von draußen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n"/>
@@ -1283,10 +1576,10 @@
       <c r="I25" s="2" t="n"/>
       <c r="J25" s="3" t="n"/>
       <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="3" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="3" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n"/>
       <c r="Q25" s="3" t="n"/>
       <c r="R25" s="2" t="n"/>
@@ -1298,67 +1591,537 @@
       <c r="X25" s="2" t="n"/>
       <c r="Y25" s="3" t="n"/>
       <c r="Z25" s="2" t="n"/>
-      <c r="AA25" s="3" t="n"/>
+      <c r="AA25" s="2" t="n"/>
+      <c r="AB25" s="3" t="n"/>
+      <c r="AC25" s="2" t="n"/>
+      <c r="AD25" s="3" t="n"/>
+      <c r="AE25" s="2" t="n"/>
+      <c r="AF25" s="2" t="n"/>
+      <c r="AG25" s="3" t="n"/>
+      <c r="AH25" s="2" t="n"/>
+      <c r="AI25" s="3" t="n"/>
+      <c r="AJ25" s="2" t="n"/>
+      <c r="AK25" s="3" t="n"/>
+      <c r="AL25" s="2" t="n"/>
+      <c r="AM25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Art der Verbindung mit dem Internet</t>
+          <t>Aufenthaltsorte der Zukunft</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Heimnetz</t>
+          <t>Zuhause</t>
         </is>
       </c>
       <c r="D26" s="1" t="n"/>
       <c r="G26" s="1" t="n"/>
       <c r="J26" s="1" t="n"/>
-      <c r="M26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
       <c r="Q26" s="1" t="n"/>
       <c r="S26" s="1" t="n"/>
       <c r="U26" s="1" t="n"/>
       <c r="W26" s="1" t="n"/>
       <c r="Y26" s="1" t="n"/>
-      <c r="AA26" s="1" t="n"/>
+      <c r="AB26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n"/>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AI26" s="1" t="n"/>
+      <c r="AK26" s="1" t="n"/>
+      <c r="AM26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Art der Verbindung mit dem Internet</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Mobil</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="3" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="3" t="n"/>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="3" t="n"/>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="3" t="n"/>
-      <c r="T27" s="2" t="n"/>
-      <c r="U27" s="3" t="n"/>
-      <c r="V27" s="2" t="n"/>
-      <c r="W27" s="3" t="n"/>
-      <c r="X27" s="2" t="n"/>
-      <c r="Y27" s="3" t="n"/>
-      <c r="Z27" s="2" t="n"/>
-      <c r="AA27" s="3" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Aufenthaltsorte der Zukunft</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Arbeit</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+      <c r="U27" s="1" t="n"/>
+      <c r="W27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
+      <c r="AB27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n"/>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AI27" s="1" t="n"/>
+      <c r="AK27" s="1" t="n"/>
+      <c r="AM27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Aufenthaltsorte der Zukunft</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Dritter Ort</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="3" t="n"/>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="3" t="n"/>
+      <c r="V28" s="2" t="n"/>
+      <c r="W28" s="3" t="n"/>
+      <c r="X28" s="2" t="n"/>
+      <c r="Y28" s="3" t="n"/>
+      <c r="Z28" s="2" t="n"/>
+      <c r="AA28" s="2" t="n"/>
+      <c r="AB28" s="3" t="n"/>
+      <c r="AC28" s="2" t="n"/>
+      <c r="AD28" s="3" t="n"/>
+      <c r="AE28" s="2" t="n"/>
+      <c r="AF28" s="2" t="n"/>
+      <c r="AG28" s="3" t="n"/>
+      <c r="AH28" s="2" t="n"/>
+      <c r="AI28" s="3" t="n"/>
+      <c r="AJ28" s="2" t="n"/>
+      <c r="AK28" s="3" t="n"/>
+      <c r="AL28" s="2" t="n"/>
+      <c r="AM28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Zentralisierung der Gebäudesteuerung</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Eine Zentrale</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="W29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AD29" s="1" t="n"/>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AI29" s="1" t="n"/>
+      <c r="AK29" s="1" t="n"/>
+      <c r="AM29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Zentralisierung der Gebäudesteuerung</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Viele unabhängige Systeme</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="3" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="3" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="3" t="n"/>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="3" t="n"/>
+      <c r="V30" s="2" t="n"/>
+      <c r="W30" s="3" t="n"/>
+      <c r="X30" s="2" t="n"/>
+      <c r="Y30" s="3" t="n"/>
+      <c r="Z30" s="2" t="n"/>
+      <c r="AA30" s="2" t="n"/>
+      <c r="AB30" s="3" t="n"/>
+      <c r="AC30" s="2" t="n"/>
+      <c r="AD30" s="3" t="n"/>
+      <c r="AE30" s="2" t="n"/>
+      <c r="AF30" s="2" t="n"/>
+      <c r="AG30" s="3" t="n"/>
+      <c r="AH30" s="2" t="n"/>
+      <c r="AI30" s="3" t="n"/>
+      <c r="AJ30" s="2" t="n"/>
+      <c r="AK30" s="3" t="n"/>
+      <c r="AL30" s="2" t="n"/>
+      <c r="AM30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Familienkonstellation</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Allein</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
+      <c r="S31" s="1" t="n"/>
+      <c r="U31" s="1" t="n"/>
+      <c r="W31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
+      <c r="AB31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n"/>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AI31" s="1" t="n"/>
+      <c r="AK31" s="1" t="n"/>
+      <c r="AM31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Familienkonstellation</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Vater, Mutter, Kind</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
+      <c r="S32" s="1" t="n"/>
+      <c r="U32" s="1" t="n"/>
+      <c r="W32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
+      <c r="AB32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n"/>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AI32" s="1" t="n"/>
+      <c r="AK32" s="1" t="n"/>
+      <c r="AM32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Familienkonstellation</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Patchwork</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="3" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="3" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="3" t="n"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="3" t="n"/>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="3" t="n"/>
+      <c r="V33" s="2" t="n"/>
+      <c r="W33" s="3" t="n"/>
+      <c r="X33" s="2" t="n"/>
+      <c r="Y33" s="3" t="n"/>
+      <c r="Z33" s="2" t="n"/>
+      <c r="AA33" s="2" t="n"/>
+      <c r="AB33" s="3" t="n"/>
+      <c r="AC33" s="2" t="n"/>
+      <c r="AD33" s="3" t="n"/>
+      <c r="AE33" s="2" t="n"/>
+      <c r="AF33" s="2" t="n"/>
+      <c r="AG33" s="3" t="n"/>
+      <c r="AH33" s="2" t="n"/>
+      <c r="AI33" s="3" t="n"/>
+      <c r="AJ33" s="2" t="n"/>
+      <c r="AK33" s="3" t="n"/>
+      <c r="AL33" s="2" t="n"/>
+      <c r="AM33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kontrollbedürfnis über Automatisierung</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="W34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
+      <c r="AB34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n"/>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AI34" s="1" t="n"/>
+      <c r="AK34" s="1" t="n"/>
+      <c r="AM34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbedürfnis über Automatisierung</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="3" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="3" t="n"/>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="3" t="n"/>
+      <c r="V35" s="2" t="n"/>
+      <c r="W35" s="3" t="n"/>
+      <c r="X35" s="2" t="n"/>
+      <c r="Y35" s="3" t="n"/>
+      <c r="Z35" s="2" t="n"/>
+      <c r="AA35" s="2" t="n"/>
+      <c r="AB35" s="3" t="n"/>
+      <c r="AC35" s="2" t="n"/>
+      <c r="AD35" s="3" t="n"/>
+      <c r="AE35" s="2" t="n"/>
+      <c r="AF35" s="2" t="n"/>
+      <c r="AG35" s="3" t="n"/>
+      <c r="AH35" s="2" t="n"/>
+      <c r="AI35" s="3" t="n"/>
+      <c r="AJ35" s="2" t="n"/>
+      <c r="AK35" s="3" t="n"/>
+      <c r="AL35" s="2" t="n"/>
+      <c r="AM35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Umzugshäufigkeit</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Selten</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
+      <c r="AB36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n"/>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AI36" s="1" t="n"/>
+      <c r="AK36" s="1" t="n"/>
+      <c r="AM36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Umzugshäufigkeit</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Häufig</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="3" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="3" t="n"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="3" t="n"/>
+      <c r="V37" s="2" t="n"/>
+      <c r="W37" s="3" t="n"/>
+      <c r="X37" s="2" t="n"/>
+      <c r="Y37" s="3" t="n"/>
+      <c r="Z37" s="2" t="n"/>
+      <c r="AA37" s="2" t="n"/>
+      <c r="AB37" s="3" t="n"/>
+      <c r="AC37" s="2" t="n"/>
+      <c r="AD37" s="3" t="n"/>
+      <c r="AE37" s="2" t="n"/>
+      <c r="AF37" s="2" t="n"/>
+      <c r="AG37" s="3" t="n"/>
+      <c r="AH37" s="2" t="n"/>
+      <c r="AI37" s="3" t="n"/>
+      <c r="AJ37" s="2" t="n"/>
+      <c r="AK37" s="3" t="n"/>
+      <c r="AL37" s="2" t="n"/>
+      <c r="AM37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Anzahl der Bewohner</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Wenige</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="S38" s="1" t="n"/>
+      <c r="U38" s="1" t="n"/>
+      <c r="W38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
+      <c r="AB38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AI38" s="1" t="n"/>
+      <c r="AK38" s="1" t="n"/>
+      <c r="AM38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Anzahl der Bewohner</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Viele</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="3" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="3" t="n"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="3" t="n"/>
+      <c r="V39" s="2" t="n"/>
+      <c r="W39" s="3" t="n"/>
+      <c r="X39" s="2" t="n"/>
+      <c r="Y39" s="3" t="n"/>
+      <c r="Z39" s="2" t="n"/>
+      <c r="AA39" s="2" t="n"/>
+      <c r="AB39" s="3" t="n"/>
+      <c r="AC39" s="2" t="n"/>
+      <c r="AD39" s="3" t="n"/>
+      <c r="AE39" s="2" t="n"/>
+      <c r="AF39" s="2" t="n"/>
+      <c r="AG39" s="3" t="n"/>
+      <c r="AH39" s="2" t="n"/>
+      <c r="AI39" s="3" t="n"/>
+      <c r="AJ39" s="2" t="n"/>
+      <c r="AK39" s="3" t="n"/>
+      <c r="AL39" s="2" t="n"/>
+      <c r="AM39" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
